--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Serpine1-Lrp1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Serpine1-Lrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.23894372026269</v>
+        <v>4.145195333333334</v>
       </c>
       <c r="H2">
-        <v>3.23894372026269</v>
+        <v>12.435586</v>
       </c>
       <c r="I2">
-        <v>0.03370504445312161</v>
+        <v>0.04167134630420959</v>
       </c>
       <c r="J2">
-        <v>0.03370504445312161</v>
+        <v>0.04167134630420959</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N2">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q2">
-        <v>22.92869204686179</v>
+        <v>97.97499818747755</v>
       </c>
       <c r="R2">
-        <v>22.92869204686179</v>
+        <v>881.774983687298</v>
       </c>
       <c r="S2">
-        <v>0.0007474937044958959</v>
+        <v>0.002845254763220851</v>
       </c>
       <c r="T2">
-        <v>0.0007474937044958959</v>
+        <v>0.002845254763220851</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.23894372026269</v>
+        <v>4.145195333333334</v>
       </c>
       <c r="H3">
-        <v>3.23894372026269</v>
+        <v>12.435586</v>
       </c>
       <c r="I3">
-        <v>0.03370504445312161</v>
+        <v>0.04167134630420959</v>
       </c>
       <c r="J3">
-        <v>0.03370504445312161</v>
+        <v>0.04167134630420959</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N3">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P3">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q3">
-        <v>585.9703748594312</v>
+        <v>751.4757937424406</v>
       </c>
       <c r="R3">
-        <v>585.9703748594312</v>
+        <v>6763.282143681965</v>
       </c>
       <c r="S3">
-        <v>0.01910310301753451</v>
+        <v>0.02182332351259109</v>
       </c>
       <c r="T3">
-        <v>0.01910310301753451</v>
+        <v>0.02182332351259109</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.23894372026269</v>
+        <v>4.145195333333334</v>
       </c>
       <c r="H4">
-        <v>3.23894372026269</v>
+        <v>12.435586</v>
       </c>
       <c r="I4">
-        <v>0.03370504445312161</v>
+        <v>0.04167134630420959</v>
       </c>
       <c r="J4">
-        <v>0.03370504445312161</v>
+        <v>0.04167134630420959</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N4">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q4">
-        <v>327.6585774020252</v>
+        <v>460.5334661917171</v>
       </c>
       <c r="R4">
-        <v>327.6585774020252</v>
+        <v>4144.801195725454</v>
       </c>
       <c r="S4">
-        <v>0.01068193176180833</v>
+        <v>0.01337417772437447</v>
       </c>
       <c r="T4">
-        <v>0.01068193176180833</v>
+        <v>0.01337417772437448</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.23894372026269</v>
+        <v>4.145195333333334</v>
       </c>
       <c r="H5">
-        <v>3.23894372026269</v>
+        <v>12.435586</v>
       </c>
       <c r="I5">
-        <v>0.03370504445312161</v>
+        <v>0.04167134630420959</v>
       </c>
       <c r="J5">
-        <v>0.03370504445312161</v>
+        <v>0.04167134630420959</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N5">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q5">
-        <v>97.31405259458994</v>
+        <v>124.9487859770164</v>
       </c>
       <c r="R5">
-        <v>97.31405259458994</v>
+        <v>1124.539073793148</v>
       </c>
       <c r="S5">
-        <v>0.003172515969282883</v>
+        <v>0.003628590304023169</v>
       </c>
       <c r="T5">
-        <v>0.003172515969282883</v>
+        <v>0.00362859030402317</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>61.5300671593667</v>
+        <v>63.36098766666667</v>
       </c>
       <c r="H6">
-        <v>61.5300671593667</v>
+        <v>190.082963</v>
       </c>
       <c r="I6">
-        <v>0.640293202946365</v>
+        <v>0.6369633869850008</v>
       </c>
       <c r="J6">
-        <v>0.640293202946365</v>
+        <v>0.6369633869850008</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N6">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O6">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P6">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q6">
-        <v>435.5753243546393</v>
+        <v>1497.587484449495</v>
       </c>
       <c r="R6">
-        <v>435.5753243546393</v>
+        <v>13478.28736004546</v>
       </c>
       <c r="S6">
-        <v>0.01420010404969496</v>
+        <v>0.0434908701433839</v>
       </c>
       <c r="T6">
-        <v>0.01420010404969496</v>
+        <v>0.0434908701433839</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>61.5300671593667</v>
+        <v>63.36098766666667</v>
       </c>
       <c r="H7">
-        <v>61.5300671593667</v>
+        <v>190.082963</v>
       </c>
       <c r="I7">
-        <v>0.640293202946365</v>
+        <v>0.6369633869850008</v>
       </c>
       <c r="J7">
-        <v>0.640293202946365</v>
+        <v>0.6369633869850008</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N7">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P7">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q7">
-        <v>11131.65267211741</v>
+        <v>11486.61152738117</v>
       </c>
       <c r="R7">
-        <v>11131.65267211741</v>
+        <v>103379.5037464306</v>
       </c>
       <c r="S7">
-        <v>0.3629007828286281</v>
+        <v>0.333578328820281</v>
       </c>
       <c r="T7">
-        <v>0.3629007828286281</v>
+        <v>0.3335783288202809</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>61.5300671593667</v>
+        <v>63.36098766666667</v>
       </c>
       <c r="H8">
-        <v>61.5300671593667</v>
+        <v>190.082963</v>
       </c>
       <c r="I8">
-        <v>0.640293202946365</v>
+        <v>0.6369633869850008</v>
       </c>
       <c r="J8">
-        <v>0.640293202946365</v>
+        <v>0.6369633869850008</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N8">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O8">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P8">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q8">
-        <v>6224.515154975908</v>
+        <v>7039.440345986261</v>
       </c>
       <c r="R8">
-        <v>6224.515154975908</v>
+        <v>63354.96311387635</v>
       </c>
       <c r="S8">
-        <v>0.2029241738854705</v>
+        <v>0.2044297172274549</v>
       </c>
       <c r="T8">
-        <v>0.2029241738854705</v>
+        <v>0.2044297172274549</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>61.5300671593667</v>
+        <v>63.36098766666667</v>
       </c>
       <c r="H9">
-        <v>61.5300671593667</v>
+        <v>190.082963</v>
       </c>
       <c r="I9">
-        <v>0.640293202946365</v>
+        <v>0.6369633869850008</v>
       </c>
       <c r="J9">
-        <v>0.640293202946365</v>
+        <v>0.6369633869850008</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N9">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O9">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P9">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q9">
-        <v>1848.670649704786</v>
+        <v>1909.892743435181</v>
       </c>
       <c r="R9">
-        <v>1848.670649704786</v>
+        <v>17189.03469091663</v>
       </c>
       <c r="S9">
-        <v>0.06026814218257158</v>
+        <v>0.05546447079388096</v>
       </c>
       <c r="T9">
-        <v>0.06026814218257158</v>
+        <v>0.05546447079388096</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.56545896562697</v>
+        <v>6.023468333333334</v>
       </c>
       <c r="H10">
-        <v>5.56545896562697</v>
+        <v>18.070405</v>
       </c>
       <c r="I10">
-        <v>0.05791519027174314</v>
+        <v>0.06055348775782022</v>
       </c>
       <c r="J10">
-        <v>0.05791519027174314</v>
+        <v>0.06055348775782022</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N10">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O10">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P10">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q10">
-        <v>39.39824391637075</v>
+        <v>142.3694787782406</v>
       </c>
       <c r="R10">
-        <v>39.39824391637075</v>
+        <v>1281.325309004165</v>
       </c>
       <c r="S10">
-        <v>0.00128441427166848</v>
+        <v>0.004134498036488178</v>
       </c>
       <c r="T10">
-        <v>0.00128441427166848</v>
+        <v>0.004134498036488178</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.56545896562697</v>
+        <v>6.023468333333334</v>
       </c>
       <c r="H11">
-        <v>5.56545896562697</v>
+        <v>18.070405</v>
       </c>
       <c r="I11">
-        <v>0.05791519027174314</v>
+        <v>0.06055348775782022</v>
       </c>
       <c r="J11">
-        <v>0.05791519027174314</v>
+        <v>0.06055348775782022</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N11">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O11">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P11">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q11">
-        <v>1006.869633439856</v>
+        <v>1091.984884397275</v>
       </c>
       <c r="R11">
-        <v>1006.869633439856</v>
+        <v>9827.86395957547</v>
       </c>
       <c r="S11">
-        <v>0.03282475558161608</v>
+        <v>0.03171191886884492</v>
       </c>
       <c r="T11">
-        <v>0.03282475558161608</v>
+        <v>0.03171191886884491</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.56545896562697</v>
+        <v>6.023468333333334</v>
       </c>
       <c r="H12">
-        <v>5.56545896562697</v>
+        <v>18.070405</v>
       </c>
       <c r="I12">
-        <v>0.05791519027174314</v>
+        <v>0.06055348775782022</v>
       </c>
       <c r="J12">
-        <v>0.05791519027174314</v>
+        <v>0.06055348775782022</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N12">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O12">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P12">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q12">
-        <v>563.0139097071997</v>
+        <v>669.2106226548661</v>
       </c>
       <c r="R12">
-        <v>563.0139097071997</v>
+        <v>6022.895603893795</v>
       </c>
       <c r="S12">
-        <v>0.01835470388758409</v>
+        <v>0.01943429187988609</v>
       </c>
       <c r="T12">
-        <v>0.01835470388758409</v>
+        <v>0.01943429187988609</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.56545896562697</v>
+        <v>6.023468333333334</v>
       </c>
       <c r="H13">
-        <v>5.56545896562697</v>
+        <v>18.070405</v>
       </c>
       <c r="I13">
-        <v>0.05791519027174314</v>
+        <v>0.06055348775782022</v>
       </c>
       <c r="J13">
-        <v>0.05791519027174314</v>
+        <v>0.06055348775782022</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N13">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O13">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P13">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q13">
-        <v>167.214194895035</v>
+        <v>181.5656428947544</v>
       </c>
       <c r="R13">
-        <v>167.214194895035</v>
+        <v>1634.09078605279</v>
       </c>
       <c r="S13">
-        <v>0.005451316530874502</v>
+        <v>0.005272778972601034</v>
       </c>
       <c r="T13">
-        <v>0.005451316530874502</v>
+        <v>0.005272778972601034</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.7622353457885</v>
+        <v>25.94386466666667</v>
       </c>
       <c r="H14">
-        <v>25.7622353457885</v>
+        <v>77.831594</v>
       </c>
       <c r="I14">
-        <v>0.2680865623287702</v>
+        <v>0.2608117789529694</v>
       </c>
       <c r="J14">
-        <v>0.2680865623287702</v>
+        <v>0.2608117789529694</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N14">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O14">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P14">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q14">
-        <v>182.3725299661753</v>
+        <v>613.2039359527157</v>
       </c>
       <c r="R14">
-        <v>182.3725299661753</v>
+        <v>5518.835423574442</v>
       </c>
       <c r="S14">
-        <v>0.005945490381400247</v>
+        <v>0.01780782293311883</v>
       </c>
       <c r="T14">
-        <v>0.005945490381400247</v>
+        <v>0.01780782293311883</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.7622353457885</v>
+        <v>25.94386466666667</v>
       </c>
       <c r="H15">
-        <v>25.7622353457885</v>
+        <v>77.831594</v>
       </c>
       <c r="I15">
-        <v>0.2680865623287702</v>
+        <v>0.2608117789529694</v>
       </c>
       <c r="J15">
-        <v>0.2680865623287702</v>
+        <v>0.2608117789529694</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N15">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O15">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P15">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q15">
-        <v>4660.749925461578</v>
+        <v>4703.321490389707</v>
       </c>
       <c r="R15">
-        <v>4660.749925461578</v>
+        <v>42329.89341350736</v>
       </c>
       <c r="S15">
-        <v>0.1519441763355655</v>
+        <v>0.1365873755657871</v>
       </c>
       <c r="T15">
-        <v>0.1519441763355655</v>
+        <v>0.1365873755657871</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.7622353457885</v>
+        <v>25.94386466666667</v>
       </c>
       <c r="H16">
-        <v>25.7622353457885</v>
+        <v>77.831594</v>
       </c>
       <c r="I16">
-        <v>0.2680865623287702</v>
+        <v>0.2608117789529694</v>
       </c>
       <c r="J16">
-        <v>0.2680865623287702</v>
+        <v>0.2608117789529694</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N16">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O16">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P16">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q16">
-        <v>2606.163648750469</v>
+        <v>2882.377538464729</v>
       </c>
       <c r="R16">
-        <v>2606.163648750469</v>
+        <v>25941.39784618256</v>
       </c>
       <c r="S16">
-        <v>0.08496301997277078</v>
+        <v>0.0837060328903968</v>
       </c>
       <c r="T16">
-        <v>0.08496301997277078</v>
+        <v>0.0837060328903968</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>25.7622353457885</v>
+        <v>25.94386466666667</v>
       </c>
       <c r="H17">
-        <v>25.7622353457885</v>
+        <v>77.831594</v>
       </c>
       <c r="I17">
-        <v>0.2680865623287702</v>
+        <v>0.2608117789529694</v>
       </c>
       <c r="J17">
-        <v>0.2680865623287702</v>
+        <v>0.2608117789529694</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N17">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O17">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P17">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q17">
-        <v>774.026269647852</v>
+        <v>782.0269331060101</v>
       </c>
       <c r="R17">
-        <v>774.026269647852</v>
+        <v>7038.242397954091</v>
       </c>
       <c r="S17">
-        <v>0.02523387563903372</v>
+        <v>0.02271054756366672</v>
       </c>
       <c r="T17">
-        <v>0.02523387563903372</v>
+        <v>0.02271054756366672</v>
       </c>
     </row>
   </sheetData>
